--- a/YouTube_POM/src/test/java/com/pack/Datasheet/TestData.xlsx
+++ b/YouTube_POM/src/test/java/com/pack/Datasheet/TestData.xlsx
@@ -1404,7 +1404,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -1882,7 +1882,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -1909,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
